--- a/excel/diem/VL/12a1.xlsx
+++ b/excel/diem/VL/12a1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\test3\excel\VL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\test3\excel\diem\VL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D13A5B-861F-4295-BBD4-E9CBBAC69152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B301B6-5140-4424-B171-CFEF92D1EDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{9CBF4156-4CDB-4C3F-B325-C52CFB6B8263}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{9CBF4156-4CDB-4C3F-B325-C52CFB6B8263}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>mã môn</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB26A14A-3639-450E-A899-BD8CC5A0D2BB}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>2014540001</v>
+        <v>2013410005</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -478,19 +478,19 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:H5" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="F2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -501,7 +501,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>2014540002</v>
+        <v>2014410009</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -511,19 +511,19 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="G3">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -534,7 +534,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2015540001</v>
+        <v>2014410010</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -544,19 +544,19 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -567,7 +567,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>2015540002</v>
+        <v>2015410009</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -577,21 +577,54 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2015410010</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>412014001</v>
+      </c>
+      <c r="E6">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <f ca="1">RANDBETWEEN(0,10)</f>
         <v>6</v>
       </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H6">
+        <f ca="1">RANDBETWEEN(0,10)</f>
         <v>8</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/excel/diem/VL/12a1.xlsx
+++ b/excel/diem/VL/12a1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\test3\excel\diem\VL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\mvc-php\excel\diem\VL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B301B6-5140-4424-B171-CFEF92D1EDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701D5CF7-96AC-409C-A399-744BA369E958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{9CBF4156-4CDB-4C3F-B325-C52CFB6B8263}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{9CBF4156-4CDB-4C3F-B325-C52CFB6B8263}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>mã môn</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>12a1</t>
+  </si>
+  <si>
+    <t>năm</t>
   </si>
 </sst>
 </file>
@@ -418,23 +421,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB26A14A-3639-450E-A899-BD8CC5A0D2BB}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,190 +446,208 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
-        <v>2013410005</v>
-      </c>
-      <c r="C2">
+        <v>2013410001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>2019</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>412014001</v>
       </c>
-      <c r="E2">
-        <f t="shared" ref="E2:H5" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
       <c r="G2">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ref="G2:J5" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>1</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>2014410009</v>
-      </c>
-      <c r="C3">
+        <v>2014410001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2019</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>412014001</v>
       </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H3">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="G3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
+      <c r="I3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2014410010</v>
-      </c>
-      <c r="C4">
+        <v>2014410002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>2019</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>412014001</v>
       </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>2015410009</v>
-      </c>
-      <c r="C5">
+        <v>2015410001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2019</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>412014001</v>
       </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2015410010</v>
-      </c>
-      <c r="C6">
+        <v>2015410002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>2019</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>412014001</v>
-      </c>
-      <c r="E6">
-        <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>9</v>
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/excel/diem/VL/12a1.xlsx
+++ b/excel/diem/VL/12a1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\mvc-php\excel\diem\VL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701D5CF7-96AC-409C-A399-744BA369E958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908169FD-D9AE-4516-AD59-095F5143B48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{9CBF4156-4CDB-4C3F-B325-C52CFB6B8263}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>2013410001</v>
+        <v>2015410001</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -487,23 +487,23 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>412014001</v>
+        <v>412016003</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:J5" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -511,7 +511,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>2014410001</v>
+        <v>2013410001</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -523,19 +523,19 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>412014001</v>
+        <v>412016003</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
@@ -559,23 +559,23 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>412014001</v>
+        <v>412016003</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>2015410001</v>
+        <v>2015410002</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -595,23 +595,23 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>412014001</v>
+        <v>412016003</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2015410002</v>
+        <v>2014410001</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -631,23 +631,23 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>412014001</v>
+        <v>412016003</v>
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J6">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
